--- a/data/tumor-size/AOT00043611_size-measurements.xlsx
+++ b/data/tumor-size/AOT00043611_size-measurements.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>tail.number</t>
-  </si>
-  <si>
-    <t>cage (treatment)</t>
   </si>
   <si>
     <t>microbiome.sample</t>
@@ -41,16 +38,10 @@
     <t>weight.(g)</t>
   </si>
   <si>
-    <t>tumor.size.(mm)</t>
-  </si>
-  <si>
     <t>tumor.length.(mm)</t>
   </si>
   <si>
     <t>tumor.width.(mm)</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>9/29/21</t>
@@ -74,46 +65,28 @@
     <t>10/30/21</t>
   </si>
   <si>
-    <t>1-84v3/anti-pd1</t>
+    <t>Treatment</t>
   </si>
   <si>
-    <t>2-84v3/anti-pd1</t>
+    <t xml:space="preserve">cage </t>
   </si>
   <si>
-    <t>3-84v4/igG</t>
+    <t>anti-pd1</t>
   </si>
   <si>
-    <t>4-84v4/igG</t>
+    <t>igG</t>
   </si>
   <si>
-    <t>6.8 (2.3)</t>
+    <t>84v3</t>
   </si>
   <si>
-    <t>3.3 (2.3)</t>
+    <t>84v4</t>
   </si>
   <si>
-    <t>6.2 (2.8)</t>
+    <t>tumor.number</t>
   </si>
   <si>
-    <t>4.5 (2.3)</t>
-  </si>
-  <si>
-    <t>4.6 (4.7)</t>
-  </si>
-  <si>
-    <t>3.5 (3.6)</t>
-  </si>
-  <si>
-    <t>5.6 (2.8)</t>
-  </si>
-  <si>
-    <t>3.8 (2.1)</t>
-  </si>
-  <si>
-    <t>5.6 (3.9)</t>
-  </si>
-  <si>
-    <t>4.4 (3.3)</t>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -149,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +132,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,25 +419,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,41 +445,44 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>23.3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -508,13 +490,13 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -522,13 +504,13 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>19.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -536,13 +518,13 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>23.9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -550,13 +532,13 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -564,13 +546,13 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -578,13 +560,13 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>23.4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -592,13 +574,13 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>22.7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
@@ -606,13 +588,13 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>23.4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -620,13 +602,13 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>21.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -634,13 +616,13 @@
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>20.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -648,13 +630,13 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>21.7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -662,13 +644,13 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>23.3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -676,13 +658,13 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>24.8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -690,13 +672,13 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>21.1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -704,13 +686,13 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>24.1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -718,13 +700,13 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
@@ -732,13 +714,13 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>23.3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -746,13 +728,13 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>24.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -760,13 +742,13 @@
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>23.6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -774,13 +756,13 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>23.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -788,13 +770,13 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>22.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -802,13 +784,13 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
@@ -816,13 +798,13 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>22.3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -830,13 +812,13 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>25.4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
@@ -844,13 +826,13 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>25.6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
@@ -858,13 +840,13 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>21.9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -872,13 +854,13 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>23.1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -886,13 +868,13 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>20.2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
@@ -900,13 +882,13 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -914,13 +896,13 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
@@ -928,13 +910,13 @@
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>24.3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
@@ -942,13 +924,13 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>23.1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -956,13 +938,13 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>22.4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -970,13 +952,13 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>21.4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
@@ -984,13 +966,13 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>22.6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -998,13 +980,13 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>25.1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -1012,13 +994,13 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>25.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2">
         <v>3</v>
@@ -1026,13 +1008,13 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <v>22.1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -1040,13 +1022,13 @@
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <v>23.2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
@@ -1054,13 +1036,13 @@
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>20.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B43" s="2">
         <v>3</v>
@@ -1068,13 +1050,13 @@
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="2">
         <v>24.2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -1082,13 +1064,13 @@
       <c r="C44">
         <v>3</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -1096,13 +1078,13 @@
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2">
         <v>3</v>
@@ -1110,13 +1092,13 @@
       <c r="C46">
         <v>3</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46" s="2">
         <v>24.1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -1124,13 +1106,13 @@
       <c r="C47">
         <v>4</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="2">
         <v>23.1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
@@ -1138,13 +1120,13 @@
       <c r="C48">
         <v>4</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B49" s="2">
         <v>3</v>
@@ -1152,13 +1134,13 @@
       <c r="C49">
         <v>4</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F49" s="2">
         <v>22.6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -1166,13 +1148,13 @@
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F50" s="2">
         <v>26.3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
@@ -1180,13 +1162,13 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <v>26.3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
@@ -1194,13 +1176,13 @@
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -1208,13 +1190,13 @@
       <c r="C53">
         <v>2</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53" s="2">
         <v>24.6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
@@ -1222,13 +1204,13 @@
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="2">
         <v>21.4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B55" s="2">
         <v>3</v>
@@ -1236,13 +1218,13 @@
       <c r="C55">
         <v>2</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <v>24.6</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -1250,13 +1232,13 @@
       <c r="C56">
         <v>3</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="2">
         <v>27.2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2">
         <v>2</v>
@@ -1264,13 +1246,13 @@
       <c r="C57">
         <v>3</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <v>24.7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B58" s="2">
         <v>3</v>
@@ -1278,13 +1260,13 @@
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <v>24.7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -1292,13 +1274,13 @@
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59" s="2">
         <v>23.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B60" s="2">
         <v>2</v>
@@ -1306,13 +1288,13 @@
       <c r="C60">
         <v>4</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F60" s="2">
         <v>21.6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B61" s="2">
         <v>3</v>
@@ -1320,13 +1302,13 @@
       <c r="C61">
         <v>4</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F61" s="2">
         <v>22.9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
@@ -1334,19 +1316,22 @@
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F62" s="2">
         <v>25.9</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
         <v>5.3</v>
       </c>
-      <c r="H62" s="2">
+      <c r="I62" s="2">
         <v>4.7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
@@ -1354,19 +1339,22 @@
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F63" s="2">
         <v>26.1</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2">
         <v>5.4</v>
       </c>
-      <c r="H63" s="2">
+      <c r="I63" s="2">
         <v>3.3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B64" s="2">
         <v>3</v>
@@ -1374,19 +1362,22 @@
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="E64" s="2">
+      <c r="F64" s="2">
         <v>23.1</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
@@ -1394,19 +1385,22 @@
       <c r="C65">
         <v>2</v>
       </c>
-      <c r="E65" s="2">
+      <c r="F65" s="2">
         <v>25.4</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
         <v>4.7</v>
       </c>
-      <c r="H65" s="2">
+      <c r="I65" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B66" s="2">
         <v>2</v>
@@ -1414,19 +1408,22 @@
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="E66" s="2">
+      <c r="F66" s="2">
         <v>23</v>
       </c>
-      <c r="G66" s="2">
-        <v>3</v>
+      <c r="G66">
+        <v>1</v>
       </c>
       <c r="H66" s="2">
+        <v>3</v>
+      </c>
+      <c r="I66" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B67" s="2">
         <v>3</v>
@@ -1434,19 +1431,22 @@
       <c r="C67">
         <v>2</v>
       </c>
-      <c r="E67" s="2">
+      <c r="F67" s="2">
         <v>24.9</v>
       </c>
-      <c r="G67" s="2">
-        <v>5</v>
+      <c r="G67">
+        <v>1</v>
       </c>
       <c r="H67" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
@@ -1454,19 +1454,22 @@
       <c r="C68">
         <v>3</v>
       </c>
-      <c r="E68" s="2">
+      <c r="F68" s="2">
         <v>28</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
         <v>3.5</v>
       </c>
-      <c r="H68" s="2">
+      <c r="I68" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
@@ -1474,19 +1477,22 @@
       <c r="C69">
         <v>3</v>
       </c>
-      <c r="E69" s="2">
+      <c r="F69" s="2">
         <v>25.5</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2">
         <v>3.9</v>
       </c>
-      <c r="H69" s="2">
+      <c r="I69" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
@@ -1494,19 +1500,22 @@
       <c r="C70">
         <v>3</v>
       </c>
-      <c r="E70" s="2">
+      <c r="F70" s="2">
         <v>24.7</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2">
         <v>5.7</v>
       </c>
-      <c r="H70" s="2">
+      <c r="I70" s="2">
         <v>4.5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
@@ -1514,19 +1523,22 @@
       <c r="C71">
         <v>4</v>
       </c>
-      <c r="E71" s="2">
+      <c r="F71" s="2">
         <v>25.8</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
         <v>7</v>
       </c>
-      <c r="H71" s="2">
+      <c r="I71" s="2">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B72" s="2">
         <v>2</v>
@@ -1534,19 +1546,22 @@
       <c r="C72">
         <v>4</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F72" s="2">
         <v>22.6</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
         <v>3.1</v>
       </c>
-      <c r="H72" s="2">
+      <c r="I72" s="2">
         <v>2.7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B73" s="2">
         <v>3</v>
@@ -1554,218 +1569,2112 @@
       <c r="C73">
         <v>4</v>
       </c>
-      <c r="E73" s="2">
+      <c r="F73" s="2">
         <v>23.8</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
         <v>3.9</v>
       </c>
-      <c r="H73" s="2">
+      <c r="I73" s="2">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I74" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I75" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="I76" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I77" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="I78" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="I79" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I80" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="I81" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="2">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="I82" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G74" s="2">
+      <c r="E83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="I84" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="I85" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2</v>
+      </c>
+      <c r="C86" s="2">
+        <v>3</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="I86" s="3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="2">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2">
+        <v>3</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="I87" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" s="3">
+        <v>7</v>
+      </c>
+      <c r="I88" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2">
+        <v>4</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="I89" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="2">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="I90" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="3">
+        <v>26.3</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="I92" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B93" s="2">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="I93" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="I94" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="I95" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2</v>
+      </c>
+      <c r="C96" s="2">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="I96" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I97" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B98" s="2">
+        <v>3</v>
+      </c>
+      <c r="C98" s="2">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="3">
+        <v>25</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="I98" s="3">
         <v>6.5</v>
       </c>
-      <c r="H74" s="2">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="2">
-        <v>2</v>
-      </c>
-      <c r="C75" s="2" t="s">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G75" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H75" s="2">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="2">
-        <v>3</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="I99" s="3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="3">
+        <v>25</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101" s="3">
+        <v>7</v>
+      </c>
+      <c r="I101" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B102" s="2">
+        <v>3</v>
+      </c>
+      <c r="C102" s="2">
+        <v>3</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" s="3">
+        <v>6</v>
+      </c>
+      <c r="I102" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B103" s="2">
+        <v>3</v>
+      </c>
+      <c r="C103" s="2">
+        <v>3</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I103" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2">
+        <v>4</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I104" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2">
+        <v>4</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="I105" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B106" s="2">
+        <v>3</v>
+      </c>
+      <c r="C106" s="2">
+        <v>4</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="3">
+        <v>24</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="I106" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" s="3">
+        <v>0</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="I108" s="3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B109" s="2">
+        <v>3</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="I109" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B110" s="2">
+        <v>3</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I110" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="I111" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="I112" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I113" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="I114" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B115" s="2">
+        <v>3</v>
+      </c>
+      <c r="C115" s="2">
+        <v>2</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I115" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2">
+        <v>3</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="I116" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2">
+        <v>3</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I117" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2</v>
+      </c>
+      <c r="C118" s="2">
+        <v>3</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="I118" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2</v>
+      </c>
+      <c r="C119" s="2">
+        <v>3</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119">
+        <v>2</v>
+      </c>
+      <c r="H119" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="I119" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B120" s="2">
+        <v>3</v>
+      </c>
+      <c r="C120" s="2">
+        <v>3</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="I120" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
+        <v>4</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="I121" s="3">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2</v>
+      </c>
+      <c r="C122" s="2">
+        <v>4</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I122" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B123" s="2">
+        <v>3</v>
+      </c>
+      <c r="C123" s="2">
+        <v>4</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" s="3"/>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123" s="3">
+        <v>8</v>
+      </c>
+      <c r="I123" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="I125" s="3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B126" s="2">
+        <v>3</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="I126" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B127" s="2">
+        <v>3</v>
+      </c>
+      <c r="C127" s="2">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I127" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2">
+        <v>2</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="I128" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B129" s="2">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129" s="3">
+        <v>6</v>
+      </c>
+      <c r="I129" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I130" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2</v>
+      </c>
+      <c r="C131" s="2">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="I131" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B132" s="2">
+        <v>3</v>
+      </c>
+      <c r="C132" s="2">
+        <v>2</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="I132" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2">
+        <v>3</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I133" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2</v>
+      </c>
+      <c r="C134" s="2">
+        <v>3</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I134" s="3">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B135" s="2">
+        <v>3</v>
+      </c>
+      <c r="C135" s="2">
+        <v>3</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135" s="3">
+        <v>9</v>
+      </c>
+      <c r="I135" s="3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B136" s="2">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2">
+        <v>4</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="I136" s="3">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2</v>
+      </c>
+      <c r="C137" s="2">
+        <v>4</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="I137" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B138" s="2">
+        <v>3</v>
+      </c>
+      <c r="C138" s="2">
+        <v>4</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="I138" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>44509</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F139" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="G139" s="5">
+        <v>1</v>
+      </c>
+      <c r="H139" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="I139" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>44509</v>
+      </c>
+      <c r="B140" s="2">
+        <v>3</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="2">
-        <v>1</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="2">
-        <v>2</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="2">
-        <v>3</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="H79" s="3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="2">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="G140" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>44509</v>
+      </c>
+      <c r="B141" s="2">
+        <v>3</v>
+      </c>
+      <c r="C141" s="2">
+        <v>3</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="2">
-        <v>2</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="F141" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="G141" s="5">
+        <v>1</v>
+      </c>
+      <c r="H141" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="I141" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>44512</v>
+      </c>
+      <c r="B142" s="2">
+        <v>1</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="G142" s="5">
+        <v>1</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>44512</v>
+      </c>
+      <c r="B143" s="2">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2">
+        <v>2</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="G143" s="5">
+        <v>1</v>
+      </c>
+      <c r="H143" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="I143" s="3">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>44512</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2</v>
+      </c>
+      <c r="C144" s="2">
+        <v>2</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="G144" s="5">
+        <v>1</v>
+      </c>
+      <c r="H144" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="I144" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>44512</v>
+      </c>
+      <c r="B145" s="2">
+        <v>3</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="G145" s="5">
+        <v>1</v>
+      </c>
+      <c r="H145" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="I145" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>44512</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2">
+        <v>3</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="2">
-        <v>3</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="F146" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="G146" s="5">
+        <v>1</v>
+      </c>
+      <c r="H146" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="I146" s="3">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>44512</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2</v>
+      </c>
+      <c r="C147" s="2">
+        <v>3</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="H82" s="3">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="2">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="2">
-        <v>2</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="H84" s="3">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="2">
-        <v>3</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="H85" s="3">
-        <v>4.8</v>
+      <c r="F147" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="G147" s="5">
+        <v>1</v>
+      </c>
+      <c r="H147" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="I147" s="3">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>44512</v>
+      </c>
+      <c r="B148" s="2">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2">
+        <v>4</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148" s="3">
+        <v>22.6</v>
+      </c>
+      <c r="G148" s="5">
+        <v>1</v>
+      </c>
+      <c r="H148" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="I148" s="3">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>44512</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2</v>
+      </c>
+      <c r="C149" s="2">
+        <v>4</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="G149" s="5">
+        <v>1</v>
+      </c>
+      <c r="H149" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="I149" s="3">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>44512</v>
+      </c>
+      <c r="B150" s="2">
+        <v>3</v>
+      </c>
+      <c r="C150" s="2">
+        <v>4</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="G150" s="5">
+        <v>1</v>
+      </c>
+      <c r="H150" s="3">
+        <v>15</v>
+      </c>
+      <c r="I150" s="3">
+        <v>13.8</v>
       </c>
     </row>
   </sheetData>
